--- a/CV_Diffusion_Coefficient.xlsx
+++ b/CV_Diffusion_Coefficient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin\Box\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D334B315-557E-4ABF-9504-835884E01A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7B4D2-99D8-420D-A41D-753F48F372C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="4410" windowWidth="21600" windowHeight="12510" activeTab="1" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
+    <workbookView xWindow="10500" yWindow="1890" windowWidth="21600" windowHeight="12405" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Solver Install Instructions" sheetId="13" r:id="rId3"/>
     <sheet name="Solver Setup Instructions" sheetId="14" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="A">'Inputs and Calculations'!$C$9</definedName>
     <definedName name="A_U" localSheetId="1">'Inputs and Calculations'!$D$9</definedName>
@@ -570,9 +573,6 @@
 </t>
   </si>
   <si>
-    <t>4. A digital staircase is used to approximate a true analogy linear scan</t>
-  </si>
-  <si>
     <t>Please cite the following sources when using this computational tool.</t>
   </si>
   <si>
@@ -1106,6 +1106,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> value. The excel solver does better when your guess value is greater than the solved value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. A digital staircase is used to approximate a true analogy linear scan (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>E = 0 for analog scan)</t>
     </r>
   </si>
 </sst>
@@ -1827,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1907,6 +1930,67 @@
     <xf numFmtId="11" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1982,58 +2066,88 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,107 +2158,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,8 +2197,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3888888888888884E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:x val="6.3888915332504875E-2"/>
+          <c:y val="5.0925775747415442E-2"/>
           <c:w val="0.9027777777777779"/>
           <c:h val="0.8657407407407407"/>
         </c:manualLayout>
@@ -2387,6 +2400,7 @@
         <c:axId val="655844927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0"/>
           <c:min val="-8.0000000000000019E-3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2586,7 +2600,7 @@
           <c:x val="0.32009465424906247"/>
           <c:y val="7.9207920792079209E-2"/>
           <c:w val="0.62225924747104333"/>
-          <c:h val="8.4299611063468546E-2"/>
+          <c:h val="0.17230841194355653"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3220,13 +3234,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
@@ -4935,6 +4949,50 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105401</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>134233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D045118B-F7BB-D7B3-8946-C636078D57ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3759253" y="5223135"/>
+          <a:ext cx="2737341" cy="2901948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4942,12 +5000,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.74559</cdr:x>
-      <cdr:y>0.45545</cdr:y>
+      <cdr:x>0.74134</cdr:x>
+      <cdr:y>0.45276</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.83101</cdr:x>
-      <cdr:y>0.52515</cdr:y>
+      <cdr:x>0.93821</cdr:x>
+      <cdr:y>0.51876</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4962,8 +5020,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4040904" y="1314452"/>
-          <a:ext cx="462953" cy="201168"/>
+          <a:off x="2024743" y="1311990"/>
+          <a:ext cx="537671" cy="191261"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4988,12 +5046,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.52724</cdr:x>
-      <cdr:y>0.3947</cdr:y>
+      <cdr:x>0.52981</cdr:x>
+      <cdr:y>0.39201</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82777</cdr:x>
-      <cdr:y>0.3947</cdr:y>
+      <cdr:x>0.91353</cdr:x>
+      <cdr:y>0.39492</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -5008,8 +5066,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="2857501" y="1139130"/>
-          <a:ext cx="1628775" cy="0"/>
+          <a:off x="1447019" y="1135948"/>
+          <a:ext cx="1047989" cy="8458"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -5033,12 +5091,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.74637</cdr:x>
-      <cdr:y>0.57232</cdr:y>
+      <cdr:x>0.75565</cdr:x>
+      <cdr:y>0.57275</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.83596</cdr:x>
-      <cdr:y>0.57232</cdr:y>
+      <cdr:x>0.92887</cdr:x>
+      <cdr:y>0.57275</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -5053,8 +5111,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="4045131" y="1651746"/>
-          <a:ext cx="485552" cy="0"/>
+          <a:off x="2063802" y="1659694"/>
+          <a:ext cx="473094" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -5078,12 +5136,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.7883</cdr:x>
-      <cdr:y>0.52515</cdr:y>
+      <cdr:x>0.83855</cdr:x>
+      <cdr:y>0.51876</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7883</cdr:x>
-      <cdr:y>0.57267</cdr:y>
+      <cdr:x>0.83978</cdr:x>
+      <cdr:y>0.5687</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -5100,8 +5158,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="4272380" y="1515620"/>
-          <a:ext cx="1" cy="137160"/>
+          <a:off x="2290217" y="1503251"/>
+          <a:ext cx="3362" cy="144731"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -5128,12 +5186,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.7883</cdr:x>
-      <cdr:y>0.39688</cdr:y>
+      <cdr:x>0.83855</cdr:x>
+      <cdr:y>0.39358</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7883</cdr:x>
-      <cdr:y>0.44441</cdr:y>
+      <cdr:x>0.83978</cdr:x>
+      <cdr:y>0.45276</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -5150,8 +5208,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="4272380" y="1145432"/>
-          <a:ext cx="1" cy="137160"/>
+          <a:off x="2290217" y="1140502"/>
+          <a:ext cx="3362" cy="171488"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -6596,6 +6654,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Waveform_Respons"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6862,8 +6933,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6873,30 +6944,30 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -6906,17 +6977,17 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
       <c r="O5" s="8" t="s">
         <v>21</v>
       </c>
@@ -6928,15 +6999,15 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
       <c r="O6" s="8">
         <v>0</v>
       </c>
@@ -6952,17 +7023,17 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="60"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="O7" s="8">
         <v>0</v>
       </c>
@@ -6979,17 +7050,17 @@
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
       <c r="O8" s="8">
         <v>-2E-3</v>
       </c>
@@ -7007,7 +7078,7 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -7032,18 +7103,18 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
       <c r="O10" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -7204,34 +7275,34 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="68" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="69"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
@@ -7249,14 +7320,14 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="3"/>
       <c r="K22" s="10"/>
     </row>
@@ -7355,130 +7426,130 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="49"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
+      <c r="B46" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="49"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="49"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="78"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="78"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="49"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="49"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="49"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
@@ -7524,7 +7595,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -7534,7 +7605,7 @@
     <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -7552,20 +7623,20 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="B2" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -7574,20 +7645,20 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="78"/>
+      <c r="B3" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -7596,20 +7667,20 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="80"/>
+      <c r="B4" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -7619,18 +7690,8 @@
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
+        <v>85</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -7640,20 +7701,20 @@
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="137"/>
+      <c r="B6" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -7662,65 +7723,64 @@
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="24"/>
     </row>
     <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="48">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="101">
+      <c r="E9" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="50">
         <v>2.3600000000000001E-5</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="52">
         <v>1.5</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="48">
         <v>96485</v>
       </c>
       <c r="M9" s="27" t="s">
@@ -7731,32 +7791,32 @@
       <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="48">
         <v>238.02889999999999</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="48">
         <v>3</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="54">
         <v>8.3140000000000001</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="98">
+      <c r="K10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="48">
         <v>175</v>
       </c>
       <c r="M10" s="27" t="s">
@@ -7767,63 +7827,51 @@
       <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="54">
         <v>773</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="48">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="98">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="G11" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="98">
+      <c r="I11" s="48">
         <v>18.899999999999999</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
+      <c r="B13" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="111"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -7831,33 +7879,32 @@
     </row>
     <row r="14" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="110">
+      <c r="D14" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="58">
         <f>e_*ρD/MW*2*rA*10^-10</f>
         <v>4.1686114585245745E-9</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="111" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="112">
+      <c r="G14" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="60">
         <f>n*F*ABS(ΔE)/R_/T</f>
         <v>0.10088801102646107</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="114">
+      <c r="J14" s="62">
         <f>COx/Γ*SQRT(DOx*R_*T/n/F/ν)</f>
         <v>9.7526857260327215</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="24"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
@@ -7866,16 +7913,16 @@
     </row>
     <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="24"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
@@ -7883,20 +7930,20 @@
       <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="B16" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -7904,16 +7951,16 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="31"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -7924,85 +7971,83 @@
       <c r="B18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="48">
         <v>0.1</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117">
+      <c r="E18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="112"/>
+      <c r="G18" s="64">
         <v>-5.6416666999999997E-2</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="99">
+      <c r="I18" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="25">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*ν*DOx))</f>
         <v>-1.5920329697143184E-2</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="96"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120">
+      <c r="C19" s="25"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="67">
         <f>(Ip-Ip_calc)^2</f>
         <v>1.6399533349467524E-3</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="96"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="120"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
@@ -8012,16 +8057,16 @@
     </row>
     <row r="22" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B22" s="30"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="31"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
@@ -8032,26 +8077,26 @@
     </row>
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="E23" s="105"/>
+      <c r="F23" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="109" t="s">
+      <c r="H23" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="99"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="35"/>
       <c r="N23" s="25"/>
       <c r="O23" s="32"/>
@@ -8061,29 +8106,27 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="125">
+      <c r="C24" s="69">
         <v>0.05</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="52">
         <v>-1.1532000000000001E-2</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127">
+      <c r="E24" s="70"/>
+      <c r="F24" s="71">
         <f t="shared" ref="F24:F33" si="0">COx/Γ*SQRT(DOx*R_*T/n/F/C24)</f>
         <v>13.792380423317971</v>
       </c>
-      <c r="G24" s="128">
+      <c r="G24" s="72">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F24))*(n*F*A*COx)/SQRT(R_*T/(n*F*C24*DOx))</f>
         <v>-1.1310845902600257E-2</v>
       </c>
-      <c r="H24" s="96"/>
-      <c r="I24" s="110">
+      <c r="I24" s="58">
         <f>((D24-G24)/(n*F*A*COx)*SQRT(R_*T/(n*F*C24*DOx)))^2</f>
         <v>9.9022548325205893E-5</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="112"/>
+      <c r="J24" s="58"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="36"/>
       <c r="N24" s="25"/>
       <c r="Q24" s="25"/>
@@ -8091,29 +8134,27 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="125">
+      <c r="C25" s="69">
         <v>0.1</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="52">
         <v>-1.5852999999999999E-2</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127">
+      <c r="E25" s="70"/>
+      <c r="F25" s="71">
         <f t="shared" si="0"/>
         <v>9.7526857260327215</v>
       </c>
-      <c r="G25" s="128">
+      <c r="G25" s="72">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*C25*DOx))</f>
         <v>-1.5920329697143184E-2</v>
       </c>
-      <c r="H25" s="96"/>
-      <c r="I25" s="110">
+      <c r="I25" s="58">
         <f>((D25-G25)/(n*F*A*COx)*SQRT(R_*T/(n*F*C25*DOx)))^2</f>
         <v>4.5890991891657755E-6</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="112"/>
+      <c r="J25" s="58"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="36"/>
       <c r="N25" s="25"/>
       <c r="Q25" s="26"/>
@@ -8121,212 +8162,200 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="125">
+      <c r="C26" s="69">
         <v>0.15</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="52">
         <v>-1.9185000000000001E-2</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127">
+      <c r="E26" s="70"/>
+      <c r="F26" s="71">
         <f t="shared" si="0"/>
         <v>7.9630345501683557</v>
       </c>
-      <c r="G26" s="128">
+      <c r="G26" s="72">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*C26*DOx))</f>
         <v>-1.9498342147439323E-2</v>
       </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="110">
+      <c r="I26" s="58">
         <f>((D26-G26)/(n*F*A*COx)*SQRT(R_*T/(n*F*C26*DOx)))^2</f>
         <v>6.6261382761109532E-5</v>
       </c>
-      <c r="J26" s="110"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="112"/>
+      <c r="J26" s="58"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="36"/>
       <c r="N26" s="25"/>
       <c r="Q26" s="34"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="125">
+      <c r="C27" s="69">
         <v>0.2</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="52">
         <v>-2.1604000000000002E-2</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127">
+      <c r="E27" s="70"/>
+      <c r="F27" s="71">
         <f t="shared" si="0"/>
         <v>6.8961902116589853</v>
       </c>
-      <c r="G27" s="128">
+      <c r="G27" s="72">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*C27*DOx))</f>
         <v>-2.2514746175151038E-2</v>
       </c>
-      <c r="H27" s="96"/>
-      <c r="I27" s="110">
+      <c r="I27" s="58">
         <f>((D27-G27)/(n*F*A*COx)*SQRT(R_*T/(n*F*C27*DOx)))^2</f>
         <v>4.198351913361736E-4</v>
       </c>
-      <c r="J27" s="110"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="112"/>
+      <c r="J27" s="58"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="36"/>
       <c r="N27" s="25"/>
       <c r="Q27" s="38"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="129">
+      <c r="C28" s="73">
         <v>0.25</v>
       </c>
-      <c r="D28" s="129">
+      <c r="D28" s="73">
         <v>-2.3293999999999999E-2</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="127">
+      <c r="E28" s="34"/>
+      <c r="F28" s="71">
         <f t="shared" si="0"/>
         <v>6.1681400396152615</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28" s="72">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*C28*DOx))</f>
         <v>-2.5172251471895557E-2</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="110">
+      <c r="I28" s="58">
         <f>((D28-G28)/(n*F*A*COx)*SQRT(R_*T/(n*F*C28*DOx)))^2</f>
         <v>1.4285044241922017E-3</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="112"/>
+      <c r="J28" s="58"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="36"/>
       <c r="N28" s="25"/>
       <c r="Q28" s="39"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="127" t="e">
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="128" t="e">
+      <c r="G29" s="72" t="e">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F29))*(n*F*A*COx)/SQRT(R_*T/(n*F*C29*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="133" t="e">
+      <c r="H29" s="128" t="e">
         <f t="shared" ref="H29:H33" si="1">(D29-G29)^2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="127" t="e">
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="128" t="e">
+      <c r="G30" s="72" t="e">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F30))*(n*F*A*COx)/SQRT(R_*T/(n*F*C30*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="133" t="e">
+      <c r="H30" s="128" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="127" t="e">
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="128" t="e">
+      <c r="G31" s="72" t="e">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F31))*(n*F*A*COx)/SQRT(R_*T/(n*F*C31*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="133" t="e">
+      <c r="H31" s="128" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="127" t="e">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="128" t="e">
+      <c r="G32" s="72" t="e">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F32))*(n*F*A*COx)/SQRT(R_*T/(n*F*C32*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="133" t="e">
+      <c r="H32" s="128" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96" t="s">
-        <v>90</v>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="L32" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="127" t="e">
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="128" t="e">
+      <c r="G33" s="72" t="e">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F33))*(n*F*A*COx)/SQRT(R_*T/(n*F*C33*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="133" t="e">
+      <c r="H33" s="128" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="134">
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="L33" s="37">
         <f>SUM(I24:I26)</f>
         <v>1.698730302754812E-4</v>
       </c>
@@ -8334,66 +8363,39 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
+      <c r="B35" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="131"/>
     </row>
     <row r="36" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
       <c r="F37" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" s="44">
         <v>1.3365919187205442E-5</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
+        <v>61</v>
+      </c>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8409,117 +8411,104 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="18"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="73"/>
-      <c r="AB38" s="73"/>
-      <c r="AC38" s="73"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="73"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="127"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="127"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="127"/>
+      <c r="AE38" s="127"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="73"/>
-      <c r="AC39" s="73"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="73"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B45" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
+      <c r="B45" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B45:M47"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="R28:S28"/>
@@ -8530,6 +8519,19 @@
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B45:M47"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8552,27 +8554,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -8597,12 +8599,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CV_Diffusion_Coefficient.xlsx
+++ b/CV_Diffusion_Coefficient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devin\Box\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7B4D2-99D8-420D-A41D-753F48F372C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77E66B-56BF-4872-A9F4-665BE0F311A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1890" windowWidth="21600" windowHeight="12405" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CFD47A29-D0F7-4837-8561-FF057F143BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Solver Install Instructions" sheetId="13" r:id="rId3"/>
     <sheet name="Solver Setup Instructions" sheetId="14" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="A">'Inputs and Calculations'!$C$9</definedName>
     <definedName name="A_U" localSheetId="1">'Inputs and Calculations'!$D$9</definedName>
@@ -568,11 +565,6 @@
     <t>Dimensionless Parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Sources: (1) Krulic, D.; Fatouros, N.; Liu, D. A Complementary Survey of Staircase Voltammetry with Metal Ion Deposition on Macroelectrodes. J. Electroanal. Chem. 2015, 754, 30–39. https://doi.org/10.1016/j.jelechem.2015.06.012.
-(2) Rappleye, D.; Fuller, R. Improving the Improving the Calculation of Properties from Voltammetry Measurements of Electrodeposition in Molten Salts. J. Electrochem. Soc., 2023
-</t>
-  </si>
-  <si>
     <t>Please cite the following sources when using this computational tool.</t>
   </si>
   <si>
@@ -1130,6 +1122,11 @@
       </rPr>
       <t>E = 0 for analog scan)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources: (1) Krulic, D.; Fatouros, N.; Liu, D. A Complementary Survey of Staircase Voltammetry with Metal Ion Deposition on Macroelectrodes. J. Electroanal. Chem. 2015, 754, 30–39. https://doi.org/10.1016/j.jelechem.2015.06.012.
+(2) Rappleye, D. S.; Fuller, R. G. Bringing the Analysis of Electrodeposition Signals in Voltammetry Out of the Shadows. J. Electrochem. Soc. 2023, 170 (6), 063505. https://doi.org/10.1149/1945-7111/acd879.
+</t>
   </si>
 </sst>
 </file>
@@ -2066,6 +2063,69 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2090,74 +2150,11 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6654,19 +6651,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Waveform_Respons"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6934,7 +6918,7 @@
   <dimension ref="B1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B47" sqref="B47:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7078,7 +7062,7 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -7465,7 +7449,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="86"/>
       <c r="D46" s="86"/>
@@ -7479,7 +7463,7 @@
     </row>
     <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="76" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C47" s="77"/>
       <c r="D47" s="77"/>
@@ -7623,20 +7607,20 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -7645,20 +7629,20 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="2:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
+      <c r="B3" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -7667,20 +7651,20 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122"/>
+      <c r="B4" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -7690,7 +7674,7 @@
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="22"/>
@@ -7701,20 +7685,20 @@
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="125"/>
+      <c r="B6" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -7723,20 +7707,20 @@
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
@@ -7763,7 +7747,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="50">
         <v>2.3600000000000001E-5</v>
@@ -7814,7 +7798,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="48">
         <v>175</v>
@@ -7834,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="48">
         <v>2.2399999999999998E-3</v>
@@ -7843,7 +7827,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="48">
         <v>18.899999999999999</v>
@@ -7858,20 +7842,20 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="111"/>
+      <c r="B13" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -7880,7 +7864,7 @@
     <row r="14" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="D14" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="58">
         <f>e_*ρD/MW*2*rA*10^-10</f>
@@ -7890,7 +7874,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="60">
         <f>n*F*ABS(ΔE)/R_/T</f>
@@ -7930,20 +7914,20 @@
       <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
+      <c r="B16" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -7977,10 +7961,10 @@
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="112"/>
+      <c r="E18" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="130"/>
       <c r="G18" s="64">
         <v>-5.6416666999999997E-2</v>
       </c>
@@ -7988,7 +7972,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="25">
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/χ))*(n*F*A*COx)/SQRT(R_*T/(n*F*ν*DOx))</f>
@@ -8005,11 +7989,11 @@
       <c r="D19" s="65"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
+      <c r="G19" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="67">
         <f>(Ip-Ip_calc)^2</f>
         <v>1.6399533349467524E-3</v>
@@ -8034,20 +8018,20 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:19" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
@@ -8078,23 +8062,23 @@
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="105"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="68" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
       <c r="K23" s="32"/>
       <c r="L23" s="25"/>
       <c r="M23" s="35"/>
@@ -8186,8 +8170,8 @@
       <c r="M26" s="36"/>
       <c r="N26" s="25"/>
       <c r="Q26" s="34"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
@@ -8215,8 +8199,8 @@
       <c r="M27" s="36"/>
       <c r="N27" s="25"/>
       <c r="Q27" s="38"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
@@ -8244,8 +8228,8 @@
       <c r="M28" s="36"/>
       <c r="N28" s="25"/>
       <c r="Q28" s="39"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
@@ -8260,12 +8244,12 @@
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F29))*(n*F*A*COx)/SQRT(R_*T/(n*F*C29*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="128" t="e">
+      <c r="H29" s="103" t="e">
         <f t="shared" ref="H29:H33" si="1">(D29-G29)^2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="27"/>
@@ -8283,12 +8267,12 @@
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F30))*(n*F*A*COx)/SQRT(R_*T/(n*F*C30*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="128" t="e">
+      <c r="H30" s="103" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -8304,12 +8288,12 @@
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F31))*(n*F*A*COx)/SQRT(R_*T/(n*F*C31*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="128" t="e">
+      <c r="H31" s="103" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -8325,14 +8309,14 @@
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F32))*(n*F*A*COx)/SQRT(R_*T/(n*F*C32*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="128" t="e">
+      <c r="H32" s="103" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
       <c r="L32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M32" s="10"/>
     </row>
@@ -8349,12 +8333,12 @@
         <f>-0.611/((1+0.588*SQRT(Δεs))*(1+0.16/F33))*(n*F*A*COx)/SQRT(R_*T/(n*F*C33*DOx))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="128" t="e">
+      <c r="H33" s="103" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
       <c r="L33" s="37">
         <f>SUM(I24:I26)</f>
         <v>1.698730302754812E-4</v>
@@ -8366,20 +8350,20 @@
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="131"/>
+      <c r="B35" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
     </row>
     <row r="36" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
@@ -8388,13 +8372,13 @@
     <row r="37" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
       <c r="F37" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="44">
         <v>1.3365919187205442E-5</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -8411,104 +8395,117 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="18"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="127"/>
-      <c r="AC38" s="127"/>
-      <c r="AD38" s="127"/>
-      <c r="AE38" s="127"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="102"/>
+      <c r="AA38" s="102"/>
+      <c r="AB38" s="102"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="102"/>
+      <c r="AE38" s="102"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="102"/>
+      <c r="V39" s="102"/>
+      <c r="W39" s="102"/>
+      <c r="X39" s="102"/>
+      <c r="Y39" s="102"/>
+      <c r="Z39" s="102"/>
+      <c r="AA39" s="102"/>
+      <c r="AB39" s="102"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="102"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B45" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
+      <c r="B45" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B45:M47"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B13:M13"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="R28:S28"/>
@@ -8519,19 +8516,6 @@
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B45:M47"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8554,27 +8538,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -8599,12 +8583,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
